--- a/New Reports/Team05Report.xlsx
+++ b/New Reports/Team05Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Code\Python\2019fall-Group5-555B-Project\New Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vctu\OneDrive\Code\Python\2019fall-Group5-555B-Project\New Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_91594EE21CD72D0513AB51B7F1FA2014BFDA855E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3E0665B-F8BA-4E9F-8A3B-144B40E44E0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{9FF38008-5B28-4D0E-8EBD-1572661F0983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1310" yWindow="3570" windowWidth="28800" windowHeight="15460" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2032,15 +2032,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.4609375" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="4" max="5" width="20.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>50</v>
       </c>
@@ -2134,16 +2134,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.61328125" customWidth="1"/>
+    <col min="3" max="3" width="19.4609375" customWidth="1"/>
+    <col min="4" max="4" width="6.61328125" customWidth="1"/>
+    <col min="5" max="5" width="7.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2223,47 +2223,47 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="7"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3828125" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>182</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>184</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>185</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>186</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>187</v>
       </c>
@@ -2418,17 +2418,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.61328125" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2497,19 +2497,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="6"/>
+    <col min="1" max="1" width="7.61328125" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.61328125" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="7.4609375" customWidth="1"/>
+    <col min="7" max="7" width="6.61328125" customWidth="1"/>
+    <col min="8" max="8" width="7.61328125" customWidth="1"/>
+    <col min="9" max="9" width="10.84375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -2648,36 +2648,36 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
@@ -2697,9 +2697,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2743,9 +2743,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2788,9 +2788,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2833,13 +2833,13 @@
       <selection activeCell="A11" sqref="A10:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>156</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>170</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>175</v>
       </c>

--- a/New Reports/Team05Report.xlsx
+++ b/New Reports/Team05Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vctu\OneDrive\Code\Python\2019fall-Group5-555B-Project\New Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Code\Python\2019fall-Group5-555B-Project\New Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{9FF38008-5B28-4D0E-8EBD-1572661F0983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="114_{9FF38008-5B28-4D0E-8EBD-1572661F0983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D0B6C60-AB3B-4D64-A10A-335CDC2A937E}"/>
   <bookViews>
-    <workbookView xWindow="1310" yWindow="3570" windowWidth="28800" windowHeight="15460" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="209">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -389,319 +389,336 @@
     <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
   </si>
   <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Rx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>Cs</t>
-  </si>
-  <si>
-    <t>Rx</t>
-  </si>
-  <si>
-    <t>Kt</t>
-  </si>
-  <si>
-    <t>Sb</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -844,7 +861,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -872,6 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2032,15 +2050,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4609375" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2074,7 +2092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2091,7 +2109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2108,7 +2126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>50</v>
       </c>
@@ -2134,16 +2152,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.61328125" customWidth="1"/>
-    <col min="3" max="3" width="19.4609375" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="7.61328125" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -2160,12 +2178,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>88</v>
@@ -2177,12 +2195,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>91</v>
@@ -2191,15 +2209,15 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
@@ -2223,49 +2241,49 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="7"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3828125" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2286,9 +2304,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2302,9 +2320,9 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2327,9 +2345,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2352,9 +2370,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2377,9 +2395,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2418,17 +2436,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.61328125" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2459,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2493,23 +2511,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.61328125" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="7.4609375" customWidth="1"/>
-    <col min="7" max="7" width="6.61328125" customWidth="1"/>
-    <col min="8" max="8" width="7.61328125" customWidth="1"/>
-    <col min="9" max="9" width="10.84375" style="6"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2538,146 +2556,182 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>142</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
@@ -2685,21 +2739,24 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2726,6 +2783,116 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2737,15 +2904,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2772,6 +2942,116 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2782,15 +3062,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2817,6 +3100,116 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2829,19 +3222,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A10:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>86</v>
@@ -2850,20 +3243,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -2872,9 +3265,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -2883,9 +3276,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -2894,9 +3287,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -2905,9 +3298,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
@@ -2916,9 +3309,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -2927,20 +3320,20 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>142</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -2949,20 +3342,20 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>98</v>
@@ -2971,342 +3364,342 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
+        <v>144</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>146</v>
       </c>
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>147</v>
-      </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>154</v>
       </c>
-      <c r="B22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>155</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" t="s">
-        <v>112</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>159</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>115</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" t="s">
-        <v>116</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>161</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>117</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>173</v>
       </c>
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B42" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" t="s">
-        <v>130</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>85</v>

--- a/New Reports/Team05Report.xlsx
+++ b/New Reports/Team05Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Code\Python\2019fall-Group5-555B-Project\New Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="114_{9FF38008-5B28-4D0E-8EBD-1572661F0983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D0B6C60-AB3B-4D64-A10A-335CDC2A937E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="114_{9FF38008-5B28-4D0E-8EBD-1572661F0983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBB716A1-4947-425A-B138-7EBD45734F28}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="210">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -718,6 +718,10 @@
   </si>
   <si>
     <t>Siblings spacing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3223,7 +3227,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3391,7 +3395,7 @@
         <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>62</v>
@@ -3708,6 +3712,6 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>